--- a/System/pcb/mini_rev0/aqplus_mini_rev0_BOM.xlsx
+++ b/System/pcb/mini_rev0/aqplus_mini_rev0_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\mini_rev0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E86B4-E09D-49CC-BA78-BEAA15DD3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4D6018-D8E7-4707-B9A0-445CF2354096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="2700" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>C443416</t>
   </si>
   <si>
-    <t>C5116481</t>
-  </si>
-  <si>
     <t>C693842</t>
   </si>
   <si>
@@ -411,24 +408,15 @@
     <t>C138387</t>
   </si>
   <si>
-    <t>PJ-320B-SMT</t>
-  </si>
-  <si>
     <t>C2913203</t>
   </si>
   <si>
-    <t>C2939180</t>
-  </si>
-  <si>
     <t>Pin Headers 1x2</t>
   </si>
   <si>
     <t>JP1,JP2,JP3</t>
   </si>
   <si>
-    <t>Audio Jacks</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -445,6 +433,18 @@
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>C2905434</t>
+  </si>
+  <si>
+    <t>PJ-3200</t>
+  </si>
+  <si>
+    <t>C2689690</t>
+  </si>
+  <si>
+    <t>Audio Jack</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -961,7 +961,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -991,7 +991,7 @@
         <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1000,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>81</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>81</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>66</v>
@@ -1121,7 +1121,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>66</v>
@@ -1233,7 +1233,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5">
@@ -1303,21 +1303,21 @@
         <v>80</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5">
@@ -1331,7 +1331,7 @@
         <v>76</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -1345,7 +1345,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -1378,16 +1378,16 @@
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -1401,7 +1401,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -1409,13 +1409,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -1429,7 +1429,7 @@
         <v>67</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/System/pcb/mini_rev0/aqplus_mini_rev0_BOM.xlsx
+++ b/System/pcb/mini_rev0/aqplus_mini_rev0_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\mini_rev0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\Maker\mini-rev0\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F55CEF-1CE5-42A2-A358-E4BE1072198D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EF234-B6EB-4906-9166-EC49C53BCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>R4,R6</t>
   </si>
   <si>
-    <t>R33,R69,R38</t>
-  </si>
-  <si>
     <t>R14,R10</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>C21,C47,C35,C20,C56,C48,C33,C53,C13,C50,C12,C44,C34</t>
   </si>
   <si>
-    <t>C46,C4,C52,C55,C19,C45,C41,C30,C15,C40,C29,C42,C49,C57,C24,C37,C39,C14,C43,C51,C36,C10,C2,C31,C16,C38,C9,C32,C54,C22,C8,C17,C18</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -445,6 +439,12 @@
   </si>
   <si>
     <t>C7495013</t>
+  </si>
+  <si>
+    <t>C46,C4,C52,C55,C19,C45,C41,C30,C15,C40,C29,C42,C49,C57,C24,C37,C39,C14,C43,C51,C36,C10,C2,C31,C16,C38,C32,C54,C22,C8,C17,C18</t>
+  </si>
+  <si>
+    <t>R69,R38</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -940,13 +940,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -955,13 +955,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -973,10 +973,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -985,13 +985,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1000,13 +1000,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1015,13 +1015,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1033,10 +1033,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1048,10 +1048,10 @@
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1062,10 +1062,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="71.25">
@@ -1073,13 +1073,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="42.75">
@@ -1090,10 +1090,10 @@
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5">
@@ -1101,13 +1101,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
@@ -1115,13 +1115,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -1129,13 +1129,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
@@ -1143,13 +1143,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -1157,13 +1157,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -1174,10 +1174,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -1188,10 +1188,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -1199,13 +1199,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42.75">
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -1227,13 +1227,13 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -1241,13 +1241,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -1258,10 +1258,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -1269,13 +1269,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5">
@@ -1283,13 +1283,13 @@
         <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -1297,27 +1297,27 @@
         <v>36</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5">
@@ -1325,13 +1325,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -1342,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -1353,13 +1353,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -1370,24 +1370,24 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -1395,13 +1395,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -1409,13 +1409,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -1423,13 +1423,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
